--- a/AY25-26 CSE E3 S2.xlsx
+++ b/AY25-26 CSE E3 S2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B216F76-F3A2-7847-9567-76BE6369CE57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E04A843E-855D-EF44-AF56-D0DB7FB1855B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67,34 +67,34 @@
     <t>Slot-1</t>
   </si>
   <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
     <t>A</t>
   </si>
   <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>C2</t>
   </si>
   <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE </t>
+  </si>
+  <si>
+    <t>Slot-2</t>
+  </si>
+  <si>
     <t>Z</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSE </t>
-  </si>
-  <si>
-    <t>Slot-2</t>
   </si>
   <si>
     <t>Slot-3</t>
@@ -155,7 +155,7 @@
     <t>3-0-0</t>
   </si>
   <si>
-    <t xml:space="preserve"> LaxmiNarayana(C1,C2),  Prathyusha(C3,C4)</t>
+    <t xml:space="preserve"> Prathyusha(C1,C2,C3,C4)</t>
   </si>
   <si>
     <t>CS3225</t>
@@ -227,7 +227,7 @@
     <t>Dev Apps Lab</t>
   </si>
   <si>
-    <t>C1,C2,C3,C4-Laxmi Narayana, Prathyusha</t>
+    <t>C1,C2,C3,C4-M V Jayanth, Prathyusha</t>
   </si>
   <si>
     <t>HS3202</t>
@@ -267,7 +267,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -289,53 +289,41 @@
     <font>
       <b/>
       <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color rgb="FF1C1C1C"/>
+      <name val="Times New Roman"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF1C1C1C"/>
       <name val="Times New Roman"/>
       <charset val="1"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color rgb="FF1C1C1C"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color rgb="FF1C1C1C"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color rgb="FF1C1C1C"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF95B3D7"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
+      <color rgb="FF1C1C1C"/>
       <name val="Calibri"/>
       <charset val="1"/>
     </font>
@@ -421,7 +409,34 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF95B3D7"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -431,6 +446,11 @@
       <sz val="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -577,227 +597,242 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -862,7 +897,7 @@
       <rgbColor rgb="FF993300"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="FF1C1C1C"/>
       <rgbColor rgb="00003366"/>
       <rgbColor rgb="00339966"/>
       <rgbColor rgb="00003300"/>
@@ -1204,7 +1239,7 @@
   <dimension ref="A1:AMJ95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3515625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1335,7 +1370,7 @@
       </c>
       <c r="H5" s="21"/>
       <c r="I5" s="12"/>
-      <c r="J5" s="24" t="s">
+      <c r="J5" s="20" t="s">
         <v>16</v>
       </c>
       <c r="K5" s="21" t="s">
@@ -1345,13 +1380,13 @@
         <v>12</v>
       </c>
       <c r="M5" s="22" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="N5" s="23" t="s">
         <v>12</v>
       </c>
       <c r="O5" s="23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P5" s="22" t="s">
         <v>14</v>
@@ -1359,54 +1394,54 @@
       <c r="Q5" s="21"/>
     </row>
     <row r="6" spans="1:20" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="C6" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="25"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="M6" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="22" t="s">
+      <c r="N6" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="27"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="L6" s="26" t="s">
+      <c r="O6" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="P6" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="M6" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="N6" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="O6" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="P6" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q6" s="27"/>
+      <c r="Q6" s="26"/>
     </row>
     <row r="7" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="28"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="21" t="s">
         <v>21</v>
       </c>
@@ -1416,18 +1451,18 @@
       <c r="D7" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="26" t="s">
-        <v>15</v>
+      <c r="E7" s="23" t="s">
+        <v>11</v>
       </c>
       <c r="F7" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="29" t="s">
+      <c r="G7" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="27"/>
+      <c r="H7" s="25"/>
       <c r="I7" s="12"/>
-      <c r="J7" s="28"/>
+      <c r="J7" s="27"/>
       <c r="K7" s="21" t="s">
         <v>21</v>
       </c>
@@ -1435,21 +1470,21 @@
         <v>13</v>
       </c>
       <c r="M7" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="N7" s="26" t="s">
-        <v>11</v>
+        <v>17</v>
+      </c>
+      <c r="N7" s="23" t="s">
+        <v>15</v>
       </c>
       <c r="O7" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="P7" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="P7" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="Q7" s="27"/>
+      <c r="Q7" s="25"/>
     </row>
     <row r="8" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="28"/>
+      <c r="A8" s="27"/>
       <c r="B8" s="11" t="s">
         <v>22</v>
       </c>
@@ -1460,7 +1495,7 @@
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
       <c r="I8" s="12"/>
-      <c r="J8" s="28"/>
+      <c r="J8" s="27"/>
       <c r="K8" s="11" t="s">
         <v>22</v>
       </c>
@@ -1472,7 +1507,7 @@
       <c r="Q8" s="11"/>
     </row>
     <row r="9" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="28"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="22" t="s">
         <v>23</v>
       </c>
@@ -1480,7 +1515,7 @@
         <v>24</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>25</v>
@@ -1488,35 +1523,32 @@
       <c r="F9" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="30" t="s">
+      <c r="G9" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="31"/>
+      <c r="H9" s="29"/>
       <c r="I9" s="12"/>
-      <c r="J9" s="28"/>
+      <c r="J9" s="27"/>
       <c r="K9" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="30" t="s">
-        <v>17</v>
+      <c r="L9" s="28" t="s">
+        <v>20</v>
       </c>
       <c r="M9" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N9" s="30" t="s">
+      <c r="N9" s="28" t="s">
         <v>14</v>
       </c>
       <c r="O9" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="P9" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q9" s="31"/>
-      <c r="S9" s="32"/>
+      <c r="Q9" s="29"/>
+      <c r="S9" s="30"/>
     </row>
     <row r="10" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="28"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="22" t="s">
         <v>27</v>
       </c>
@@ -1527,38 +1559,40 @@
       <c r="E10" s="9"/>
       <c r="F10" s="8"/>
       <c r="G10" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H10" s="21"/>
       <c r="I10" s="12"/>
-      <c r="J10" s="28"/>
+      <c r="J10" s="27"/>
       <c r="K10" s="22" t="s">
         <v>27</v>
       </c>
       <c r="L10" s="21" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M10" s="9"/>
       <c r="N10" s="21" t="s">
         <v>13</v>
       </c>
       <c r="O10" s="10"/>
-      <c r="P10" s="21"/>
+      <c r="P10" s="21" t="s">
+        <v>13</v>
+      </c>
       <c r="Q10" s="21"/>
     </row>
     <row r="11" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="28"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="22" t="s">
         <v>28</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="21"/>
       <c r="E11" s="9"/>
-      <c r="F11" s="33"/>
+      <c r="F11" s="31"/>
       <c r="G11" s="21"/>
       <c r="H11" s="21"/>
       <c r="I11" s="12"/>
-      <c r="J11" s="28"/>
+      <c r="J11" s="27"/>
       <c r="K11" s="22" t="s">
         <v>28</v>
       </c>
@@ -1568,9 +1602,9 @@
       <c r="M11" s="9"/>
       <c r="N11" s="21"/>
       <c r="O11" s="10"/>
-      <c r="P11" s="33"/>
+      <c r="P11" s="31"/>
       <c r="Q11" s="21"/>
-      <c r="T11" s="32"/>
+      <c r="T11" s="30"/>
     </row>
     <row r="12" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
@@ -1624,99 +1658,99 @@
       </c>
     </row>
     <row r="13" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="20" t="s">
         <v>29</v>
       </c>
       <c r="B13" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="30" t="s">
-        <v>18</v>
+      <c r="C13" s="28" t="s">
+        <v>17</v>
       </c>
       <c r="D13" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="21" t="s">
-        <v>15</v>
-      </c>
       <c r="F13" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>24</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G13" s="21"/>
       <c r="H13" s="21"/>
       <c r="I13" s="12"/>
-      <c r="J13" s="24" t="s">
+      <c r="J13" s="20" t="s">
         <v>30</v>
       </c>
       <c r="K13" s="21" t="s">
         <v>10</v>
       </c>
       <c r="L13" s="22" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="M13" s="22" t="s">
         <v>14</v>
       </c>
       <c r="N13" s="22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O13" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="P13" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q13" s="21"/>
+    </row>
+    <row r="14" spans="1:20" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="P13" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q13" s="21"/>
-    </row>
-    <row r="14" spans="1:20" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="25" t="s">
+      <c r="B14" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="C14" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="D14" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="G14" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="9"/>
-      <c r="H14" s="27"/>
+      <c r="H14" s="25"/>
       <c r="I14" s="12"/>
-      <c r="J14" s="25" t="s">
+      <c r="J14" s="24" t="s">
         <v>31</v>
       </c>
       <c r="K14" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="L14" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="L14" s="23" t="s">
         <v>12</v>
       </c>
       <c r="M14" s="22" t="s">
         <v>12</v>
       </c>
       <c r="N14" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="O14" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="O14" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="P14" s="34" t="s">
+      <c r="P14" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="Q14" s="27"/>
+      <c r="Q14" s="25"/>
     </row>
     <row r="15" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="35"/>
+      <c r="A15" s="33"/>
       <c r="B15" s="21" t="s">
         <v>21</v>
       </c>
@@ -1724,36 +1758,34 @@
       <c r="D15" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="26" t="s">
+      <c r="E15" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="9"/>
-      <c r="H15" s="27"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
       <c r="I15" s="12"/>
-      <c r="J15" s="28"/>
+      <c r="J15" s="27"/>
       <c r="K15" s="21" t="s">
         <v>21</v>
       </c>
       <c r="L15" s="22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M15" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="N15" s="26" t="s">
         <v>11</v>
       </c>
+      <c r="N15" s="23" t="s">
+        <v>11</v>
+      </c>
       <c r="O15" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="P15" s="33"/>
-      <c r="Q15" s="27"/>
+        <v>11</v>
+      </c>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="25"/>
     </row>
     <row r="16" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="35"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="11" t="s">
         <v>22</v>
       </c>
@@ -1764,7 +1796,7 @@
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
       <c r="I16" s="12"/>
-      <c r="J16" s="28"/>
+      <c r="J16" s="27"/>
       <c r="K16" s="11" t="s">
         <v>22</v>
       </c>
@@ -1776,28 +1808,28 @@
       <c r="Q16" s="11"/>
     </row>
     <row r="17" spans="1:1024" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="35"/>
+      <c r="A17" s="33"/>
       <c r="B17" s="22" t="s">
         <v>23</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="30" t="s">
-        <v>11</v>
+      <c r="D17" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>15</v>
       </c>
       <c r="F17" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G17" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="H17" s="31"/>
+      <c r="G17" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="29"/>
       <c r="I17" s="12"/>
-      <c r="J17" s="28"/>
+      <c r="J17" s="27"/>
       <c r="K17" s="22" t="s">
         <v>23</v>
       </c>
@@ -1816,15 +1848,15 @@
       <c r="P17" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="Q17" s="31"/>
+      <c r="Q17" s="29"/>
     </row>
     <row r="18" spans="1:1024" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="35"/>
+      <c r="A18" s="33"/>
       <c r="B18" s="22" t="s">
         <v>27</v>
       </c>
       <c r="C18" s="9"/>
-      <c r="D18" s="26" t="s">
+      <c r="D18" s="23" t="s">
         <v>12</v>
       </c>
       <c r="E18" s="21" t="s">
@@ -1833,10 +1865,10 @@
       <c r="F18" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="21"/>
+      <c r="G18" s="9"/>
       <c r="H18" s="21"/>
       <c r="I18" s="12"/>
-      <c r="J18" s="28"/>
+      <c r="J18" s="27"/>
       <c r="K18" s="22" t="s">
         <v>27</v>
       </c>
@@ -1845,7 +1877,7 @@
       </c>
       <c r="M18" s="9"/>
       <c r="N18" s="22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O18" s="9"/>
       <c r="P18" s="8" t="s">
@@ -1854,22 +1886,24 @@
       <c r="Q18" s="21"/>
     </row>
     <row r="19" spans="1:1024" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="35"/>
+      <c r="A19" s="33"/>
       <c r="B19" s="22" t="s">
         <v>28</v>
       </c>
       <c r="C19" s="9"/>
-      <c r="D19" s="37" t="s">
+      <c r="D19" s="28" t="s">
         <v>14</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
+        <v>17</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="9"/>
       <c r="H19" s="21"/>
       <c r="I19" s="12"/>
-      <c r="J19" s="28"/>
+      <c r="J19" s="27"/>
       <c r="K19" s="22" t="s">
         <v>28</v>
       </c>
@@ -1883,17 +1917,17 @@
     <row r="20" spans="1:1024" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:1024" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="22" spans="1:1024" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="38"/>
-      <c r="B22" s="39" t="s">
+      <c r="A22" s="34"/>
+      <c r="B22" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="40" t="s">
+      <c r="C22" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="41" t="s">
+      <c r="D22" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="E22" s="42" t="s">
+      <c r="E22" s="38" t="s">
         <v>35</v>
       </c>
       <c r="F22" s="7" t="s">
@@ -1902,65 +1936,65 @@
       <c r="G22" s="7"/>
     </row>
     <row r="23" spans="1:1024" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" s="44" t="s">
+      <c r="A23" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="45" t="s">
+      <c r="C23" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="46" t="s">
+      <c r="D23" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="E23" s="47">
+      <c r="E23" s="43">
         <v>3</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>40</v>
       </c>
       <c r="G23" s="6"/>
-      <c r="K23" s="48"/>
+      <c r="K23" s="44"/>
     </row>
     <row r="24" spans="1:1024" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="43" t="s">
+      <c r="A24" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="49" t="s">
+      <c r="B24" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="50" t="s">
+      <c r="C24" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="46" t="s">
+      <c r="D24" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="E24" s="47">
+      <c r="E24" s="43">
         <v>3</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>43</v>
       </c>
       <c r="G24" s="6"/>
-      <c r="U24" s="51" t="s">
+      <c r="U24" s="47" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:1024" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" s="49" t="s">
+      <c r="A25" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="52" t="s">
+      <c r="C25" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="46" t="s">
+      <c r="D25" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="E25" s="47">
+      <c r="E25" s="43">
         <v>3</v>
       </c>
       <c r="F25" s="6" t="s">
@@ -1968,43 +2002,43 @@
       </c>
       <c r="G25" s="6"/>
     </row>
-    <row r="26" spans="1:1024" s="51" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" s="49" t="s">
+    <row r="26" spans="1:1024" s="47" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="52" t="s">
+      <c r="C26" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="46" t="s">
+      <c r="D26" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="E26" s="47">
+      <c r="E26" s="43">
         <v>4</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>51</v>
       </c>
       <c r="G26" s="5"/>
-      <c r="S26" s="54"/>
+      <c r="S26" s="50"/>
       <c r="AMJ26"/>
     </row>
-    <row r="27" spans="1:1024" s="51" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="55" t="s">
+    <row r="27" spans="1:1024" s="47" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="56" t="s">
+      <c r="B27" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="52" t="s">
+      <c r="C27" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="D27" s="46" t="s">
+      <c r="D27" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="E27" s="47">
+      <c r="E27" s="43">
         <v>3</v>
       </c>
       <c r="F27" s="6" t="s">
@@ -2013,20 +2047,20 @@
       <c r="G27" s="6"/>
       <c r="AMJ27"/>
     </row>
-    <row r="28" spans="1:1024" s="51" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="B28" s="57" t="s">
+    <row r="28" spans="1:1024" s="47" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="58" t="s">
+      <c r="C28" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="D28" s="59" t="s">
+      <c r="D28" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="E28" s="47">
+      <c r="E28" s="43">
         <v>3</v>
       </c>
       <c r="F28" s="4" t="s">
@@ -2036,19 +2070,19 @@
       <c r="AMJ28"/>
     </row>
     <row r="29" spans="1:1024" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="53" t="s">
+      <c r="A29" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="49" t="s">
+      <c r="B29" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="50" t="s">
+      <c r="C29" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="D29" s="46" t="s">
+      <c r="D29" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="E29" s="47">
+      <c r="E29" s="43">
         <v>3</v>
       </c>
       <c r="F29" s="6" t="s">
@@ -2059,19 +2093,19 @@
       <c r="L29" s="6"/>
     </row>
     <row r="30" spans="1:1024" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="53" t="s">
+      <c r="A30" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="49" t="s">
+      <c r="B30" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="50" t="s">
+      <c r="C30" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="D30" s="46" t="s">
+      <c r="D30" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="E30" s="47">
+      <c r="E30" s="43">
         <v>3</v>
       </c>
       <c r="F30" s="4" t="s">
@@ -2080,19 +2114,19 @@
       <c r="G30" s="4"/>
     </row>
     <row r="31" spans="1:1024" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="60" t="s">
-        <v>17</v>
-      </c>
-      <c r="B31" s="44" t="s">
+      <c r="A31" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="C31" s="50" t="s">
+      <c r="C31" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="D31" s="46" t="s">
+      <c r="D31" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="E31" s="47">
+      <c r="E31" s="43">
         <v>2</v>
       </c>
       <c r="F31" s="6" t="s">
@@ -2178,11 +2212,11 @@
     <mergeCell ref="F25:G25"/>
     <mergeCell ref="F26:G26"/>
     <mergeCell ref="I12:I19"/>
-    <mergeCell ref="G13:G15"/>
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="B16:H16"/>
     <mergeCell ref="K16:Q16"/>
     <mergeCell ref="C17:C19"/>
+    <mergeCell ref="G17:G19"/>
     <mergeCell ref="M17:M19"/>
     <mergeCell ref="O17:O19"/>
     <mergeCell ref="P18:P19"/>
@@ -2213,195 +2247,195 @@
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="62" t="s">
+      <c r="D1" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="62" t="s">
+      <c r="E1" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="62" t="s">
+      <c r="F1" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="62" t="s">
+      <c r="G1" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="62" t="s">
+      <c r="H1" s="58" t="s">
         <v>8</v>
       </c>
       <c r="I1" s="3"/>
-      <c r="J1" s="61" t="s">
+      <c r="J1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="63" t="s">
+      <c r="K1" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="63" t="s">
+      <c r="L1" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="63" t="s">
+      <c r="M1" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="63" t="s">
+      <c r="N1" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="63" t="s">
+      <c r="O1" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="63" t="s">
+      <c r="P1" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="63" t="s">
+      <c r="Q1" s="59" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="66" t="s">
+      <c r="D2" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="63" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="61"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="66" t="s">
+      <c r="N2" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q2" s="61"/>
+    </row>
+    <row r="3" spans="1:17" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="66" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="66" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="65"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="67" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="65" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="66" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" s="66" t="s">
+      <c r="E3" s="62" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="68" t="s">
+      <c r="H3" s="68"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="66" t="s">
+        <v>70</v>
+      </c>
+      <c r="K3" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="23" t="s">
+      <c r="N3" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="P3" s="62" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q3" s="68"/>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="69"/>
+      <c r="B4" s="61" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="62" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="66" t="s">
+      <c r="H4" s="68"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="61" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="62" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="N4" s="67" t="s">
+        <v>11</v>
+      </c>
+      <c r="O4" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="P4" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="65"/>
-    </row>
-    <row r="3" spans="1:17" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="69" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" s="65" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="66" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="66" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="70" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="66" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="27"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="69" t="s">
-        <v>70</v>
-      </c>
-      <c r="K3" s="65" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" s="70" t="s">
-        <v>12</v>
-      </c>
-      <c r="M3" s="66" t="s">
-        <v>15</v>
-      </c>
-      <c r="N3" s="66" t="s">
-        <v>12</v>
-      </c>
-      <c r="O3" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="P3" s="66" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q3" s="27"/>
-    </row>
-    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="28"/>
-      <c r="B4" s="65" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="66" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="71" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="70" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="66" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="27"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="65" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="66" t="s">
-        <v>13</v>
-      </c>
-      <c r="M4" s="71" t="s">
-        <v>13</v>
-      </c>
-      <c r="N4" s="70" t="s">
-        <v>15</v>
-      </c>
-      <c r="O4" s="66" t="s">
-        <v>12</v>
-      </c>
-      <c r="P4" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q4" s="27"/>
+      <c r="Q4" s="68"/>
     </row>
     <row r="5" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="28"/>
+      <c r="A5" s="69"/>
       <c r="B5" s="2" t="s">
         <v>22</v>
       </c>
@@ -2412,7 +2446,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="3"/>
-      <c r="J5" s="28"/>
+      <c r="J5" s="69"/>
       <c r="K5" s="2" t="s">
         <v>22</v>
       </c>
@@ -2424,270 +2458,270 @@
       <c r="Q5" s="2"/>
     </row>
     <row r="6" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="28"/>
-      <c r="B6" s="66" t="s">
+      <c r="A6" s="69"/>
+      <c r="B6" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="68" t="s">
+      <c r="D6" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="68" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
+      <c r="F6" s="65" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
       <c r="I6" s="3"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="66" t="s">
+      <c r="J6" s="69"/>
+      <c r="K6" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="L6" s="51"/>
-      <c r="M6" s="1" t="s">
+      <c r="L6" s="47"/>
+      <c r="M6" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="N6" s="51"/>
-      <c r="O6" s="10" t="s">
+      <c r="N6" s="47"/>
+      <c r="O6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P6" s="68"/>
-      <c r="Q6" s="31"/>
+      <c r="P6" s="65"/>
+      <c r="Q6" s="72"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="28"/>
-      <c r="B7" s="66" t="s">
+      <c r="A7" s="69"/>
+      <c r="B7" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="66" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="66" t="s">
+      <c r="C7" s="1"/>
+      <c r="D7" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="79"/>
+      <c r="F7" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
       <c r="I7" s="3"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="66" t="s">
+      <c r="J7" s="69"/>
+      <c r="K7" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="L7" s="51"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="51"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="65"/>
-      <c r="Q7" s="65"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="79"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="61"/>
+      <c r="Q7" s="61"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="28"/>
-      <c r="B8" s="66" t="s">
+      <c r="A8" s="69"/>
+      <c r="B8" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="73"/>
       <c r="I8" s="3"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="66" t="s">
+      <c r="J8" s="69"/>
+      <c r="K8" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="L8" s="51"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="51"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="79"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="73"/>
+      <c r="Q8" s="73"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="61" t="s">
+      <c r="A9" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="62" t="s">
+      <c r="C9" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="62" t="s">
+      <c r="D9" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="62" t="s">
+      <c r="E9" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="62" t="s">
+      <c r="F9" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="62" t="s">
+      <c r="G9" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="62" t="s">
+      <c r="H9" s="58" t="s">
         <v>8</v>
       </c>
       <c r="I9" s="3"/>
-      <c r="J9" s="61" t="s">
+      <c r="J9" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="K9" s="63" t="s">
+      <c r="K9" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="L9" s="63" t="s">
+      <c r="L9" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="M9" s="63" t="s">
+      <c r="M9" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="N9" s="63" t="s">
+      <c r="N9" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="O9" s="63" t="s">
+      <c r="O9" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="P9" s="63" t="s">
+      <c r="P9" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="Q9" s="63" t="s">
+      <c r="Q9" s="59" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" s="67" t="s">
+      <c r="A10" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="65" t="s">
+      <c r="B10" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="66" t="s">
+      <c r="C10" s="62" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="62" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="66" t="s">
+      <c r="F10" s="63"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="L10" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="M10" s="62" t="s">
+        <v>13</v>
+      </c>
+      <c r="N10" s="62" t="s">
+        <v>15</v>
+      </c>
+      <c r="O10" s="63"/>
+      <c r="P10" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q10" s="61"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="65" t="s">
+      <c r="D11" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="68"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="66" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="23"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="67" t="s">
-        <v>30</v>
-      </c>
-      <c r="K10" s="65" t="s">
-        <v>10</v>
-      </c>
-      <c r="L10" s="66" t="s">
+      <c r="M11" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="M10" s="66" t="s">
-        <v>13</v>
-      </c>
-      <c r="N10" s="66" t="s">
+      <c r="N11" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="O10" s="23"/>
-      <c r="P10" s="66" t="s">
+      <c r="O11" s="67"/>
+      <c r="P11" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q11" s="68"/>
+    </row>
+    <row r="12" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="69"/>
+      <c r="B12" s="61" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="Q10" s="65"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="69" t="s">
-        <v>71</v>
-      </c>
-      <c r="B11" s="65" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="70" t="s">
+      <c r="E12" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="66" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="66" t="s">
+      <c r="G12" s="71"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="69"/>
+      <c r="K12" s="61" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="M12" s="70" t="s">
+        <v>11</v>
+      </c>
+      <c r="N12" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="70" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="66" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="27"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="69" t="s">
-        <v>72</v>
-      </c>
-      <c r="K11" s="65" t="s">
-        <v>20</v>
-      </c>
-      <c r="L11" s="70" t="s">
-        <v>11</v>
-      </c>
-      <c r="M11" s="66" t="s">
-        <v>14</v>
-      </c>
-      <c r="N11" s="72" t="s">
-        <v>15</v>
-      </c>
-      <c r="O11" s="70"/>
-      <c r="P11" s="66" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q11" s="27"/>
-    </row>
-    <row r="12" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="28"/>
-      <c r="B12" s="65" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="66" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="66" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="29"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="65" t="s">
-        <v>21</v>
-      </c>
-      <c r="L12" s="66" t="s">
-        <v>15</v>
-      </c>
-      <c r="M12" s="71" t="s">
-        <v>15</v>
-      </c>
-      <c r="N12" s="70" t="s">
-        <v>14</v>
-      </c>
-      <c r="O12" s="66" t="s">
-        <v>18</v>
-      </c>
-      <c r="P12" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q12" s="27"/>
+      <c r="O12" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="P12" s="71" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q12" s="68"/>
     </row>
     <row r="13" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="28"/>
+      <c r="A13" s="69"/>
       <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
@@ -2698,7 +2732,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="28"/>
+      <c r="J13" s="69"/>
       <c r="K13" s="2" t="s">
         <v>22</v>
       </c>
@@ -2710,118 +2744,118 @@
       <c r="Q13" s="2"/>
     </row>
     <row r="14" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="28"/>
-      <c r="B14" s="66" t="s">
+      <c r="A14" s="69"/>
+      <c r="B14" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="68" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="73" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="1" t="s">
+      <c r="C14" s="65" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="76" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="68" t="s">
+      <c r="F14" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="31"/>
+      <c r="H14" s="72"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="66" t="s">
+      <c r="J14" s="69"/>
+      <c r="K14" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="L14" s="10" t="s">
+      <c r="L14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M14" s="73" t="s">
+      <c r="M14" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="N14" s="68" t="s">
+      <c r="N14" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="O14" s="1" t="s">
+      <c r="O14" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="P14" s="68" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q14" s="31"/>
+      <c r="P14" s="65" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q14" s="72"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" s="28"/>
-      <c r="B15" s="66" t="s">
+      <c r="A15" s="69"/>
+      <c r="B15" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="68" t="s">
+      <c r="C15" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="66" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="65"/>
+      <c r="D15" s="77" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="79"/>
+      <c r="F15" s="62" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="79"/>
+      <c r="H15" s="61"/>
       <c r="I15" s="3"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="66" t="s">
+      <c r="J15" s="69"/>
+      <c r="K15" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="L15" s="10"/>
-      <c r="M15" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="N15" s="66" t="s">
-        <v>13</v>
-      </c>
-      <c r="O15" s="1"/>
-      <c r="P15" s="65"/>
-      <c r="Q15" s="65"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="77" t="s">
+        <v>15</v>
+      </c>
+      <c r="N15" s="62" t="s">
+        <v>13</v>
+      </c>
+      <c r="O15" s="79"/>
+      <c r="P15" s="61"/>
+      <c r="Q15" s="61"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" s="28"/>
-      <c r="B16" s="66" t="s">
+      <c r="A16" s="69"/>
+      <c r="B16" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="74"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="21"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="73"/>
       <c r="I16" s="3"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="66" t="s">
+      <c r="J16" s="69"/>
+      <c r="K16" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="L16" s="10"/>
-      <c r="M16" s="74"/>
-      <c r="N16" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="O16" s="1"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="21"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="78"/>
+      <c r="N16" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="O16" s="79"/>
+      <c r="P16" s="73"/>
+      <c r="Q16" s="73"/>
     </row>
     <row r="19" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="38"/>
-      <c r="B19" s="39" t="s">
+      <c r="A19" s="34"/>
+      <c r="B19" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="40" t="s">
+      <c r="C19" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="41" t="s">
+      <c r="D19" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="E19" s="42" t="s">
+      <c r="E19" s="38" t="s">
         <v>35</v>
       </c>
       <c r="F19" s="7" t="s">
@@ -2830,19 +2864,19 @@
       <c r="G19" s="7"/>
     </row>
     <row r="20" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="44" t="s">
+      <c r="A20" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="45" t="s">
+      <c r="C20" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="46" t="s">
+      <c r="D20" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="47">
+      <c r="E20" s="43">
         <v>3</v>
       </c>
       <c r="F20" s="6" t="s">
@@ -2851,19 +2885,19 @@
       <c r="G20" s="6"/>
     </row>
     <row r="21" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="43" t="s">
+      <c r="A21" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="49" t="s">
+      <c r="B21" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="50" t="s">
+      <c r="C21" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="46" t="s">
+      <c r="D21" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="E21" s="47">
+      <c r="E21" s="43">
         <v>3</v>
       </c>
       <c r="F21" s="6" t="s">
@@ -2872,19 +2906,19 @@
       <c r="G21" s="6"/>
     </row>
     <row r="22" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="49" t="s">
+      <c r="A22" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="52" t="s">
+      <c r="C22" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="46" t="s">
+      <c r="D22" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="47">
+      <c r="E22" s="43">
         <v>3</v>
       </c>
       <c r="F22" s="6" t="s">
@@ -2893,19 +2927,19 @@
       <c r="G22" s="6"/>
     </row>
     <row r="23" spans="1:7" ht="37.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="49" t="s">
+      <c r="A23" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="52" t="s">
+      <c r="C23" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="D23" s="46" t="s">
+      <c r="D23" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="E23" s="47">
+      <c r="E23" s="43">
         <v>4</v>
       </c>
       <c r="F23" s="5" t="s">
@@ -2914,19 +2948,19 @@
       <c r="G23" s="5"/>
     </row>
     <row r="24" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="55" t="s">
+      <c r="A24" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="56" t="s">
+      <c r="B24" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="52" t="s">
+      <c r="C24" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="D24" s="46" t="s">
+      <c r="D24" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="E24" s="47">
+      <c r="E24" s="43">
         <v>3</v>
       </c>
       <c r="F24" s="6" t="s">
@@ -2935,38 +2969,38 @@
       <c r="G24" s="6"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25" s="57" t="s">
+      <c r="A25" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="58" t="s">
+      <c r="C25" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="59" t="s">
+      <c r="D25" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="E25" s="47">
+      <c r="E25" s="43">
         <v>3</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="53" t="s">
+      <c r="A26" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="50" t="s">
+      <c r="C26" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="D26" s="46" t="s">
+      <c r="D26" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="E26" s="47">
+      <c r="E26" s="43">
         <v>3</v>
       </c>
       <c r="F26" s="6" t="s">
@@ -2975,19 +3009,19 @@
       <c r="G26" s="6"/>
     </row>
     <row r="27" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="53" t="s">
+      <c r="A27" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="49" t="s">
+      <c r="B27" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="50" t="s">
+      <c r="C27" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="D27" s="46" t="s">
+      <c r="D27" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="E27" s="47">
+      <c r="E27" s="43">
         <v>3</v>
       </c>
       <c r="F27" s="4" t="s">
@@ -2996,19 +3030,19 @@
       <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="60" t="s">
-        <v>17</v>
-      </c>
-      <c r="B28" s="44" t="s">
+      <c r="A28" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="C28" s="50" t="s">
+      <c r="C28" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="D28" s="46" t="s">
+      <c r="D28" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="E28" s="47">
+      <c r="E28" s="43">
         <v>2</v>
       </c>
       <c r="F28" s="6"/>
